--- a/projeto/data.xlsx
+++ b/projeto/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/269957e6334ffb49/Documentos/Code/GitHub/gdv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluan\OneDrive\Documentos\Faculdade\Matérias\8º semestre\Geração e distribuição de vapor\gdv\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853CECE8-E714-49FA-9E06-61FD8F2F4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7DCEC-FB8C-4344-A4EC-CDCAA69AEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{184B6E42-48C8-4CB5-8BC1-FABA21963A73}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Temperatura [ºC]</t>
   </si>
@@ -51,49 +51,17 @@
   <si>
     <t>Saturação</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t>6,94</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -132,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -172,13 +140,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14607587-8A50-43A8-913B-A766EEA0DA69}" name="Tabela1" displayName="Tabela1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14607587-8A50-43A8-913B-A766EEA0DA69}" name="Tabela1" displayName="Tabela1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D13" xr:uid="{14607587-8A50-43A8-913B-A766EEA0DA69}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A893BDD9-C894-4394-9C37-C098153BF3F1}" name="Temperatura [ºC]" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{69295A79-E9DD-410D-8860-6B950231E6C4}" name="Pressão [kPa]" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{533F3FC8-5588-4D5E-957C-634D1CEF908C}" name="Vazão [kg/s]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{56E732F7-B094-457D-9542-4831388153E6}" name="Título [-]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A893BDD9-C894-4394-9C37-C098153BF3F1}" name="Temperatura [ºC]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69295A79-E9DD-410D-8860-6B950231E6C4}" name="Pressão [kPa]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{533F3FC8-5588-4D5E-957C-634D1CEF908C}" name="Vazão [kg/s]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{56E732F7-B094-457D-9542-4831388153E6}" name="Título [-]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,7 +452,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,36 +571,36 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>900</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+      <c r="C12" s="2">
+        <v>6.94</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>900</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+      <c r="C13" s="2">
+        <v>6.94</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/projeto/data.xlsx
+++ b/projeto/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluan\OneDrive\Documentos\Faculdade\Matérias\8º semestre\Geração e distribuição de vapor\gdv\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7DCEC-FB8C-4344-A4EC-CDCAA69AEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B450F62C-7E12-4AFB-85FB-A0B80BDF7F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{184B6E42-48C8-4CB5-8BC1-FABA21963A73}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
